--- a/Alternate Part List.xlsx
+++ b/Alternate Part List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krotain\Documents\git\493\ece_492-3_topic_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D0352-E24B-4B76-8A86-867E43D02BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E72F08-9D5A-4E49-92B0-E7807DF91F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2175" windowWidth="29040" windowHeight="16440" xr2:uid="{DD9C814F-33BB-46B4-954A-62ACB4677A0F}"/>
   </bookViews>
@@ -209,12 +209,6 @@
     <t>PTS181224V075</t>
   </si>
   <si>
-    <t>0.29Ohm</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Bussmann-Eaton/PTS181224V075?qs=QmibqUXyDhQsWMUFkSWVRg%3D%3D</t>
-  </si>
-  <si>
     <t>AP63205WU-7</t>
   </si>
   <si>
@@ -561,6 +555,12 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/3m/3365-16-300/9478306</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/576-1812L110-24DR</t>
+  </si>
+  <si>
+    <t>0.2Ohm</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABF4B5B-D5F0-478D-961E-5722ED7FBC19}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,11 +1015,11 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J2">
         <f>SUM(E:E)</f>
-        <v>97.542170000000041</v>
+        <v>97.884170000000026</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>0.18</v>
       </c>
       <c r="E6">
-        <f>D6*B6</f>
+        <f t="shared" ref="E6:E15" si="1">D6*B6</f>
         <v>0.36</v>
       </c>
       <c r="F6" t="s">
@@ -1139,12 +1139,12 @@
         <v>25</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -1156,7 +1156,7 @@
         <v>0.12887999999999999</v>
       </c>
       <c r="E7">
-        <f>D7*B7</f>
+        <f t="shared" si="1"/>
         <v>1.5465599999999999</v>
       </c>
       <c r="F7" t="s">
@@ -1169,12 +1169,12 @@
         <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1186,7 +1186,7 @@
         <v>3.7130000000000003E-2</v>
       </c>
       <c r="E8">
-        <f>D8*B8</f>
+        <f t="shared" si="1"/>
         <v>0.22278000000000003</v>
       </c>
       <c r="F8" t="s">
@@ -1199,12 +1199,12 @@
         <v>31</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>1.984E-2</v>
       </c>
       <c r="E9">
-        <f>D9*B9</f>
+        <f t="shared" si="1"/>
         <v>3.968E-2</v>
       </c>
       <c r="F9" t="s">
@@ -1229,12 +1229,12 @@
         <v>33</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1246,7 +1246,7 @@
         <v>2.3310000000000001E-2</v>
       </c>
       <c r="E10">
-        <f>D10*B10</f>
+        <f t="shared" si="1"/>
         <v>4.6620000000000002E-2</v>
       </c>
       <c r="F10" t="s">
@@ -1259,12 +1259,12 @@
         <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1276,7 +1276,7 @@
         <v>7.8600000000000007E-3</v>
       </c>
       <c r="E11">
-        <f>D11*B11</f>
+        <f t="shared" si="1"/>
         <v>7.0740000000000011E-2</v>
       </c>
       <c r="F11" t="s">
@@ -1289,12 +1289,12 @@
         <v>36</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -1306,7 +1306,7 @@
         <v>4.6699999999999997E-3</v>
       </c>
       <c r="E12">
-        <f>D12*B12</f>
+        <f t="shared" si="1"/>
         <v>7.9389999999999988E-2</v>
       </c>
       <c r="F12" t="s">
@@ -1319,12 +1319,12 @@
         <v>36</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1336,7 +1336,7 @@
         <v>8.1899999999999994E-3</v>
       </c>
       <c r="E13">
-        <f>D13*B13</f>
+        <f t="shared" si="1"/>
         <v>1.6379999999999999E-2</v>
       </c>
       <c r="F13" t="s">
@@ -1349,12 +1349,12 @@
         <v>36</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>6.6699999999999997E-3</v>
       </c>
       <c r="E14">
-        <f>D14*B14</f>
+        <f t="shared" si="1"/>
         <v>1.3339999999999999E-2</v>
       </c>
       <c r="F14" t="s">
@@ -1379,12 +1379,12 @@
         <v>36</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         <v>8.8900000000000003E-3</v>
       </c>
       <c r="E15">
-        <f>D15*B15</f>
+        <f t="shared" si="1"/>
         <v>5.3339999999999999E-2</v>
       </c>
       <c r="F15" t="s">
@@ -1409,7 +1409,7 @@
         <v>36</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E21" si="1">D16*B16</f>
+        <f t="shared" ref="E16:E21" si="2">D16*B16</f>
         <v>0.28399999999999997</v>
       </c>
       <c r="F16" t="s">
@@ -1456,7 +1456,7 @@
         <v>0.28299999999999997</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56599999999999995</v>
       </c>
       <c r="F17" t="s">
@@ -1486,7 +1486,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23400000000000001</v>
       </c>
       <c r="F18" t="s">
@@ -1516,7 +1516,7 @@
         <v>0.19642000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39284000000000002</v>
       </c>
       <c r="F19" t="s">
@@ -1529,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
         <v>8.1970000000000001E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49182000000000003</v>
       </c>
       <c r="F20" t="s">
@@ -1559,7 +1559,7 @@
         <v>51</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>0.124</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.248</v>
       </c>
       <c r="F21" t="s">
@@ -1600,17 +1600,17 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>0.21</v>
+        <v>0.59</v>
       </c>
       <c r="D22">
-        <v>0.114</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E29" si="2">D22*B22</f>
-        <v>0.22800000000000001</v>
+        <f t="shared" ref="E22:E29" si="3">D22*B22</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -1619,12 +1619,12 @@
         <v>1812</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1636,7 +1636,7 @@
         <v>0.38736999999999999</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77473999999999998</v>
       </c>
       <c r="F23" t="s">
@@ -1646,15 +1646,15 @@
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>0.32139000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64278000000000002</v>
       </c>
       <c r="F24" t="s">
@@ -1676,15 +1676,15 @@
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1696,7 +1696,7 @@
         <v>3.41</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.82</v>
       </c>
       <c r="F25" t="s">
@@ -1706,15 +1706,15 @@
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>1.96</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.92</v>
       </c>
       <c r="F26" t="s">
@@ -1736,15 +1736,15 @@
         <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1756,7 +1756,7 @@
         <v>12.95</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.95</v>
       </c>
       <c r="F27" t="s">
@@ -1769,12 +1769,12 @@
         <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>10.95</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.95</v>
       </c>
       <c r="F28" t="s">
@@ -1799,12 +1799,12 @@
         <v>12</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33200000000000002</v>
       </c>
       <c r="F29" t="s">
@@ -1829,12 +1829,12 @@
         <v>12</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>4.51</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:E40" si="3">D30*B30</f>
+        <f t="shared" ref="E30:E40" si="4">D30*B30</f>
         <v>4.51</v>
       </c>
       <c r="F30" t="s">
@@ -1856,15 +1856,15 @@
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>2.95</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.95</v>
       </c>
       <c r="F31" t="s">
@@ -1886,15 +1886,15 @@
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1906,25 +1906,25 @@
         <v>0.153</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30599999999999999</v>
       </c>
       <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>14.38</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.38</v>
       </c>
       <c r="F33" t="s">
@@ -1946,15 +1946,15 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1966,25 +1966,25 @@
         <v>0.49559999999999998</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99119999999999997</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4">
         <v>0.1</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1996,25 +1996,25 @@
         <v>0.57287999999999994</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1457599999999999</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" s="4">
         <v>0.2</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -2026,11 +2026,11 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G36" s="4">
         <v>0.01</v>
@@ -2039,12 +2039,12 @@
         <v>36</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -2056,11 +2056,11 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G37" s="4">
         <v>0.01</v>
@@ -2069,12 +2069,12 @@
         <v>31</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2086,11 +2086,11 @@
         <v>1.91E-3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.528E-2</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" s="4">
         <v>0.01</v>
@@ -2099,12 +2099,12 @@
         <v>36</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2116,11 +2116,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="F39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G39" s="4">
         <v>0.01</v>
@@ -2129,12 +2129,12 @@
         <v>36</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2146,11 +2146,11 @@
         <v>1.91E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.82E-3</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G40" s="4">
         <v>0.01</v>
@@ -2159,12 +2159,12 @@
         <v>36</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41">
         <v>20</v>
@@ -2176,11 +2176,11 @@
         <v>2.7299999999999998E-3</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E52" si="4">D41*B41</f>
+        <f t="shared" ref="E41:E52" si="5">D41*B41</f>
         <v>5.4599999999999996E-2</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G41" s="4">
         <v>0.01</v>
@@ -2189,12 +2189,12 @@
         <v>36</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2206,11 +2206,11 @@
         <v>2.7299999999999998E-3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6379999999999999E-2</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G42" s="4">
         <v>0.01</v>
@@ -2219,12 +2219,12 @@
         <v>36</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B43">
         <v>32</v>
@@ -2236,11 +2236,11 @@
         <v>1.91E-3</v>
       </c>
       <c r="E43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1120000000000001E-2</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G43" s="4">
         <v>0.01</v>
@@ -2249,12 +2249,12 @@
         <v>36</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -2266,11 +2266,11 @@
         <v>1.91E-3</v>
       </c>
       <c r="E44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.82E-3</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G44" s="4">
         <v>0.01</v>
@@ -2279,12 +2279,12 @@
         <v>36</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -2296,11 +2296,11 @@
         <v>1.91E-3</v>
       </c>
       <c r="E45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.82E-3</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G45" s="4">
         <v>0.01</v>
@@ -2309,12 +2309,12 @@
         <v>36</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2326,11 +2326,11 @@
         <v>2.7299999999999998E-3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4599999999999996E-3</v>
       </c>
       <c r="F46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G46" s="4">
         <v>0.01</v>
@@ -2339,12 +2339,12 @@
         <v>36</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1.62</v>
       </c>
       <c r="E47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.62</v>
       </c>
       <c r="F47" t="s">
@@ -2369,12 +2369,12 @@
         <v>12</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>22</v>
@@ -2386,7 +2386,7 @@
         <v>0.159</v>
       </c>
       <c r="E48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4980000000000002</v>
       </c>
       <c r="F48" t="s">
@@ -2399,12 +2399,12 @@
         <v>12</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2416,7 +2416,7 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="E49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72399999999999998</v>
       </c>
       <c r="F49" t="s">
@@ -2429,12 +2429,12 @@
         <v>12</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>1.63</v>
       </c>
       <c r="E50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1499999999999986</v>
       </c>
       <c r="F50" t="s">
@@ -2459,12 +2459,12 @@
         <v>12</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2476,7 +2476,7 @@
         <v>0.1764</v>
       </c>
       <c r="E51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3528</v>
       </c>
       <c r="F51" t="s">
@@ -2489,12 +2489,12 @@
         <v>12</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>0.19661000000000001</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39322000000000001</v>
       </c>
       <c r="F52" t="s">
@@ -2519,12 +2519,12 @@
         <v>12</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2548,15 +2548,15 @@
         <v>12</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>7.3</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55">
         <v>39.9</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2656,12 +2656,12 @@
         <v>12</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2685,7 +2685,7 @@
         <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">

--- a/Alternate Part List.xlsx
+++ b/Alternate Part List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krotain\Documents\git\493\ece_492-3_topic_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E72F08-9D5A-4E49-92B0-E7807DF91F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590627A-8135-4BDF-8AA6-0478945E325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2175" windowWidth="29040" windowHeight="16440" xr2:uid="{DD9C814F-33BB-46B4-954A-62ACB4677A0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="177">
   <si>
     <t>Part(*=Similar)</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>0.2Ohm</t>
+  </si>
+  <si>
+    <t>3083et</t>
+  </si>
+  <si>
+    <t>Front Panel Keys</t>
   </si>
 </sst>
 </file>
@@ -943,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABF4B5B-D5F0-478D-961E-5722ED7FBC19}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1025,7 @@
       </c>
       <c r="J2">
         <f>SUM(E:E)</f>
-        <v>97.884170000000026</v>
+        <v>106.07417000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1605,9 +1611,8 @@
       <c r="D22">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E22">
-        <f t="shared" ref="E22:E29" si="3">D22*B22</f>
-        <v>0.56999999999999995</v>
+      <c r="E22" t="s">
+        <v>175</v>
       </c>
       <c r="F22" t="s">
         <v>174</v>
@@ -1636,7 +1641,7 @@
         <v>0.38736999999999999</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E22:E29" si="3">D23*B23</f>
         <v>0.77473999999999998</v>
       </c>
       <c r="F23" t="s">
@@ -1693,11 +1698,11 @@
         <v>6.41</v>
       </c>
       <c r="D25">
-        <v>3.41</v>
+        <v>7.29</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>6.82</v>
+        <v>14.58</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -2686,6 +2691,32 @@
       </c>
       <c r="I58" s="3" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
